--- a/biology/Médecine/Charles_Caldwell/Charles_Caldwell.xlsx
+++ b/biology/Médecine/Charles_Caldwell/Charles_Caldwell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Caldwell (14 mai 1772 - 9 juillet 1853) est un médecin américain. Il est l'un des premiers partisans du polygénisme aux États-Unis et participe à la fondation du Louisville Medical Institute dans le Kentucky en 1837.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Caldwell naît le 14 mai 1772 dans le comté de Caswell, en Caroline du Nord. Ses parents sont des immigrants d'origine irlandaise. Il obtient en 1796 son doctorat en médecine à la faculté de médecine de l'université de Pennsylvanie, où il est l'élève de Benjamin Rush.
-Caldwell pratique comme médecin à Philadelphie et obtient une charge de cours à l'université de Pennsylvanie. Il est éditeur du magazine médical Port Folio et publie des articles de revues médicales[1].
-Il est élu membre de l'American Antiquarian Society en 1815[2]
-En 1819, Caldwell quitte Philadelphie et rejoint la faculté de médecine de Lexington, dans le Kentucky, Kentucky's rattachée à la Transylvania University, puis il participe en 1837 à la fondation du Louisville Medical Institute qu'il quitte en 1849[3].
+Caldwell pratique comme médecin à Philadelphie et obtient une charge de cours à l'université de Pennsylvanie. Il est éditeur du magazine médical Port Folio et publie des articles de revues médicales.
+Il est élu membre de l'American Antiquarian Society en 1815
+En 1819, Caldwell quitte Philadelphie et rejoint la faculté de médecine de Lexington, dans le Kentucky, Kentucky's rattachée à la Transylvania University, puis il participe en 1837 à la fondation du Louisville Medical Institute qu'il quitte en 1849.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Théories polygénistes sur les races humaines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caldwell est l'un des premiers médecins américains partisans de la théorie raciale connue sous le nom de « polygénisme ». Il fait ainsi l'hypothèse que Dieu a créé quatre races distinctes : caucasienne, mongole, amérindienne et africaine[4]. Son travail le plus connu est Thoughts on the Original Unity of Mankind (1830). Ses théories sont cités par Josiah Nott dans Types of Mankind[5] et reprises par plusieurs médecins américains, notamment Samuel Henry Dickson et John Edwards Holbrook. Caldwell défend notamment l'institution de l'esclavage aux États-Unis qu'il justifie par les différences entre les races. Il possède lui-même des esclaves domestiques[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caldwell est l'un des premiers médecins américains partisans de la théorie raciale connue sous le nom de « polygénisme ». Il fait ainsi l'hypothèse que Dieu a créé quatre races distinctes : caucasienne, mongole, amérindienne et africaine. Son travail le plus connu est Thoughts on the Original Unity of Mankind (1830). Ses théories sont cités par Josiah Nott dans Types of Mankind et reprises par plusieurs médecins américains, notamment Samuel Henry Dickson et John Edwards Holbrook. Caldwell défend notamment l'institution de l'esclavage aux États-Unis qu'il justifie par les différences entre les races. Il possède lui-même des esclaves domestiques.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Caldwell meurt le 9 juillet 1853 à Louisville dans le Kentucky. Il est inhumé au cimetière Cave Hill de la ville[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Caldwell meurt le 9 juillet 1853 à Louisville dans le Kentucky. Il est inhumé au cimetière Cave Hill de la ville.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>An attempt to establish the original sameness of three phenomena of fever (1796)
 A semi-annual oration, on the origin of pestilential diseases (1799)
